--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -227,435 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
-  <si>
-    <t>【期間】2010/04　～　2011/04</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※「現在の状況」は当月時点の数値です。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月別利用状況</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>付与数</t>
-  </si>
-  <si>
-    <t>残数</t>
-  </si>
-  <si>
-    <t>未消化</t>
-  </si>
-  <si>
-    <t>現在の状況</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>月初残</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>未消化</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>年休</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">123456789012 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>積立年休</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>代休</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>振休</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>特別休暇１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>発生</t>
-  </si>
-  <si>
-    <t>使用</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日通　太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ニッツウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>●職場：1234567890　名古屋支店</t>
-    <rPh sb="1" eb="3">
-      <t>ショクバ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ナゴヤ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>16.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>12.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10.0</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残数</t>
-    <rPh sb="1" eb="2">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>子の看護休暇</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カンゴキュウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用数</t>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>介護休暇</t>
-    <rPh sb="0" eb="1">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キュウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用数</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（次回年休付与：2017/04/01)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>主任</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>正社員</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2015/04/01付与</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2016/04/01付与</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="3"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1905,25 +1477,25 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1950,20 +1522,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -45675,7 +45247,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -45691,70 +45263,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
       <c r="T1" s="29"/>
       <c r="U1" s="108"/>
       <c r="V1" s="108"/>
       <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A2" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="V2" s="109"/>
       <c r="W2" s="109"/>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1" thickBot="1">
-      <c r="A3" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:23" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="63"/>
       <c r="D4" s="64"/>
-      <c r="E4" s="110" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="110"/>
       <c r="F4" s="111"/>
       <c r="G4" s="111"/>
       <c r="H4" s="111"/>
       <c r="I4" s="111"/>
-      <c r="J4" s="112" t="s">
-        <v>2</v>
-      </c>
+      <c r="J4" s="112"/>
       <c r="K4" s="113"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -45774,21 +45336,11 @@
       <c r="B5" s="9"/>
       <c r="C5" s="65"/>
       <c r="D5" s="66"/>
-      <c r="E5" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="68"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -45805,9 +45357,7 @@
       <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="114" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="114"/>
       <c r="B6" s="115"/>
       <c r="C6" s="115"/>
       <c r="D6" s="115"/>
@@ -45832,156 +45382,66 @@
       <c r="W6" s="82"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>71</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="100" t="s">
-        <v>24</v>
-      </c>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="102"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>99</v>
-      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="73" t="s">
-        <v>31</v>
-      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>78</v>
-      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="41"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -45993,15 +45453,11 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="V9" s="4"/>
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="55"/>
@@ -46010,9 +45466,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="39"/>
-      <c r="J10" s="44" t="s">
-        <v>79</v>
-      </c>
+      <c r="J10" s="44"/>
       <c r="K10" s="42"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -46024,38 +45478,22 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="V10" s="3"/>
       <c r="W10" s="23"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="119"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="74" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="75"/>
-      <c r="L11" s="76" t="s">
-        <v>36</v>
-      </c>
+      <c r="L11" s="76"/>
       <c r="M11" s="76"/>
       <c r="N11" s="76"/>
       <c r="O11" s="76"/>
@@ -46065,9 +45503,7 @@
       <c r="S11" s="76"/>
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
-      <c r="V11" s="76" t="s">
-        <v>34</v>
-      </c>
+      <c r="V11" s="76"/>
       <c r="W11" s="77"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
@@ -46080,9 +45516,7 @@
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="84" t="s">
-        <v>19</v>
-      </c>
+      <c r="J12" s="84"/>
       <c r="K12" s="85"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
@@ -46094,9 +45528,7 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="33" t="s">
-        <v>35</v>
-      </c>
+      <c r="V12" s="33"/>
       <c r="W12" s="86"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
@@ -46109,9 +45541,7 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="74" t="s">
-        <v>5</v>
-      </c>
+      <c r="J13" s="74"/>
       <c r="K13" s="75"/>
       <c r="L13" s="76"/>
       <c r="M13" s="76"/>
@@ -46123,9 +45553,7 @@
       <c r="S13" s="76"/>
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
-      <c r="V13" s="76" t="s">
-        <v>35</v>
-      </c>
+      <c r="V13" s="76"/>
       <c r="W13" s="78"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
@@ -46138,91 +45566,45 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="84" t="s">
-        <v>4</v>
-      </c>
+      <c r="J14" s="84"/>
       <c r="K14" s="85"/>
-      <c r="L14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>41</v>
-      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
       <c r="W14" s="78"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="102"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>18</v>
-      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="6"/>
@@ -46234,27 +45616,19 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="44" t="s">
-        <v>19</v>
-      </c>
+      <c r="J16" s="44"/>
       <c r="K16" s="42"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="V16" s="3"/>
       <c r="W16" s="12"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
@@ -46267,25 +45641,19 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="J17" s="43"/>
       <c r="K17" s="41"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="V17" s="4"/>
       <c r="W17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
@@ -46298,106 +45666,44 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="U19" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="V19" s="76" t="s">
-        <v>47</v>
-      </c>
+      <c r="J19" s="74"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
       <c r="W19" s="78"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
@@ -46410,62 +45716,32 @@
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="U20" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="33" t="s">
-        <v>47</v>
-      </c>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
       <c r="W20" s="78"/>
     </row>
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="117"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="95"/>
-      <c r="J21" s="93" t="s">
-        <v>81</v>
-      </c>
+      <c r="J21" s="93"/>
       <c r="K21" s="91"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -46475,12 +45751,8 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="23"/>
     </row>
@@ -46491,16 +45763,10 @@
       <c r="D22" s="59"/>
       <c r="E22" s="17"/>
       <c r="F22" s="88"/>
-      <c r="G22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="96"/>
-      <c r="J22" s="94" t="s">
-        <v>88</v>
-      </c>
+      <c r="J22" s="94"/>
       <c r="K22" s="92"/>
       <c r="L22" s="89"/>
       <c r="M22" s="89"/>
@@ -46512,26 +45778,20 @@
       <c r="S22" s="89"/>
       <c r="T22" s="89"/>
       <c r="U22" s="89"/>
-      <c r="V22" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="V22" s="3"/>
       <c r="W22" s="23"/>
     </row>
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="117"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="95"/>
-      <c r="J23" s="93" t="s">
-        <v>91</v>
-      </c>
+      <c r="J23" s="93"/>
       <c r="K23" s="91"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -46541,12 +45801,8 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="23"/>
     </row>
@@ -46557,16 +45813,10 @@
       <c r="D24" s="55"/>
       <c r="E24" s="18"/>
       <c r="F24" s="70"/>
-      <c r="G24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>89</v>
-      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="97"/>
-      <c r="J24" s="94" t="s">
-        <v>87</v>
-      </c>
+      <c r="J24" s="94"/>
       <c r="K24" s="92"/>
       <c r="L24" s="89"/>
       <c r="M24" s="89"/>
@@ -46578,28 +45828,26 @@
       <c r="S24" s="89"/>
       <c r="T24" s="89"/>
       <c r="U24" s="89"/>
-      <c r="V24" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="V24" s="3"/>
       <c r="W24" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -224,10 +224,6 @@
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,7 +1169,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,25 +1473,25 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1522,19 +1518,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -45244,10 +45246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -45263,48 +45265,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A1" s="117"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
       <c r="T1" s="29"/>
       <c r="U1" s="108"/>
       <c r="V1" s="108"/>
       <c r="W1" s="108"/>
     </row>
     <row r="2" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
       <c r="V2" s="109"/>
       <c r="W2" s="109"/>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1" thickBot="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:23" ht="9.9499999999999993" customHeight="1">
       <c r="A4" s="24"/>
@@ -45407,8 +45409,8 @@
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="46"/>
@@ -45434,8 +45436,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="47"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -45484,8 +45486,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -45584,8 +45586,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="16"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -45684,8 +45686,8 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -45734,8 +45736,8 @@
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
@@ -45784,8 +45786,8 @@
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
@@ -45831,23 +45833,48 @@
       <c r="V24" s="3"/>
       <c r="W24" s="23"/>
     </row>
+    <row r="25" spans="1:23" ht="15" customHeight="1">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -1473,25 +1473,31 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1518,25 +1524,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -45249,10 +45249,10 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -45264,62 +45264,62 @@
     <col min="24" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="T1" s="29"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
     </row>
-    <row r="2" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
+    <row r="2" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="9" customHeight="1" thickBot="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
+    <row r="3" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
     </row>
-    <row r="4" spans="1:23" ht="9.9499999999999993" customHeight="1">
+    <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="63"/>
       <c r="D4" s="64"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -45333,7 +45333,7 @@
       <c r="V4" s="24"/>
       <c r="W4" s="24"/>
     </row>
-    <row r="5" spans="1:23" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="65"/>
@@ -45358,18 +45358,18 @@
       <c r="V5" s="26"/>
       <c r="W5" s="27"/>
     </row>
-    <row r="6" spans="1:23" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
+    <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
       <c r="L6" s="82"/>
       <c r="M6" s="82"/>
       <c r="N6" s="82"/>
@@ -45409,8 +45409,8 @@
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="46"/>
@@ -45436,8 +45436,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="120"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="47"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -45486,8 +45486,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -45586,8 +45586,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="16"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -45686,8 +45686,8 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="102"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -45736,8 +45736,8 @@
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
@@ -45786,8 +45786,8 @@
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
@@ -45833,56 +45833,56 @@
       <c r="V24" s="3"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
+    <row r="25" spans="1:23" ht="12" customHeight="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"MSゴシック,標準"日通システム株式会社
-&amp;C&amp;"MSゴシック,太字"&amp;16休暇残数管理票&amp;R&amp;"MSゴシック,標準"&amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社
+&amp;C&amp;"MSゴシック,Regular"&amp;16休暇残数管理票&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -1479,25 +1479,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1524,20 +1524,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -45249,7 +45249,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
@@ -45265,48 +45265,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="T1" s="29"/>
       <c r="U1" s="110"/>
       <c r="V1" s="110"/>
       <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
       <c r="V2" s="111"/>
       <c r="W2" s="111"/>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="24"/>
@@ -45409,8 +45409,8 @@
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="46"/>
@@ -45436,8 +45436,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="47"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -45486,8 +45486,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -45586,8 +45586,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="16"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -45686,8 +45686,8 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -45736,8 +45736,8 @@
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
@@ -45786,8 +45786,8 @@
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
@@ -45860,21 +45860,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -1479,25 +1479,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1524,20 +1524,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1625,26 +1625,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:rowOff>103189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1"/>
+        <xdr:cNvPr id="13" name="楕円 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8445500" y="420688"/>
-          <a:ext cx="476250" cy="198437"/>
+          <a:off x="4587874" y="555627"/>
+          <a:ext cx="508001" cy="246062"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -45249,7 +45249,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K6"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
@@ -45265,48 +45265,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="A1" s="119"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="T1" s="29"/>
       <c r="U1" s="110"/>
       <c r="V1" s="110"/>
       <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="V2" s="111"/>
       <c r="W2" s="111"/>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="24"/>
@@ -45409,8 +45409,8 @@
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="46"/>
@@ -45436,8 +45436,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="122"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="47"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -45486,8 +45486,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -45586,8 +45586,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="16"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -45686,8 +45686,8 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="104"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -45736,8 +45736,8 @@
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
@@ -45786,8 +45786,8 @@
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
@@ -45860,21 +45860,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -1479,25 +1479,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1524,20 +1524,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1625,14 +1625,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39689</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>103189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -1643,8 +1643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4587874" y="555627"/>
-          <a:ext cx="508001" cy="246062"/>
+          <a:off x="4706939" y="555627"/>
+          <a:ext cx="277812" cy="246062"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -45249,7 +45249,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
@@ -45265,48 +45265,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="T1" s="29"/>
       <c r="U1" s="110"/>
       <c r="V1" s="110"/>
       <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
       <c r="V2" s="111"/>
       <c r="W2" s="111"/>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="24"/>
@@ -45409,8 +45409,8 @@
       <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="46"/>
@@ -45436,8 +45436,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="47"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -45486,8 +45486,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -45586,8 +45586,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="16"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -45686,8 +45686,8 @@
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="104"/>
       <c r="E19" s="49"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -45736,8 +45736,8 @@
     <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
       <c r="E21" s="90"/>
       <c r="F21" s="87"/>
       <c r="G21" s="19"/>
@@ -45786,8 +45786,8 @@
     <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="90"/>
       <c r="F23" s="30"/>
       <c r="G23" s="33"/>
@@ -45860,21 +45860,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KDR001\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KDR001_develop\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,7 +222,7 @@
     <definedName name="飛行機" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -455,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -494,19 +494,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1060,13 +1047,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="38" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
@@ -1164,12 +1151,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,13 +1166,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,16 +1181,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,7 +1193,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,28 +1208,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="16" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="6" borderId="23" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="15" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1263,52 +1235,49 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,8 +1286,11 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1329,7 +1301,7 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,23 +1310,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1368,31 +1340,19 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,13 +1361,7 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,73 +1370,106 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="15" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1494,50 +1481,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -45249,7 +45209,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
@@ -45260,11 +45220,13 @@
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11" max="23" width="5.28515625" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" style="88" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="2" customWidth="1"/>
     <col min="24" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="105"/>
       <c r="B1" s="105"/>
       <c r="C1" s="105"/>
@@ -45276,12 +45238,12 @@
       <c r="I1" s="105"/>
       <c r="J1" s="105"/>
       <c r="K1" s="105"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
-    <row r="2" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="106"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -45293,10 +45255,10 @@
       <c r="I2" s="107"/>
       <c r="J2" s="107"/>
       <c r="K2" s="107"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="108"/>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
@@ -45307,574 +45269,574 @@
       <c r="H3" s="108"/>
       <c r="I3" s="108"/>
       <c r="J3" s="108"/>
+      <c r="V3" s="88"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="69"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="30"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="23"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="77"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="86"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="78"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="78"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="12"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="23"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="23"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="78"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="78"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
     </row>
-    <row r="21" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="23"/>
+    <row r="21" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="23"/>
+    <row r="22" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
     </row>
-    <row r="23" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="23"/>
+    <row r="23" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="81" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="23"/>
+    <row r="24" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KDR001_develop\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\KDR001_release\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1020,17 +1020,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1156,7 +1145,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,9 +1296,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1361,9 +1347,6 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1382,9 +1365,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1398,9 +1378,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,26 +1404,41 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1469,34 +1461,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -45208,81 +45188,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11" max="21" width="5.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" style="88" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="3.140625" style="2"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="21" width="5.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="84" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="3.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="85"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="V3" s="88"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="V3" s="84"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45299,14 +45279,14 @@
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
@@ -45322,29 +45302,29 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="4"/>
@@ -45356,24 +45336,24 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
       <c r="E8" s="40"/>
@@ -45381,26 +45361,26 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="109"/>
       <c r="E9" s="41"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -45432,130 +45412,130 @@
       <c r="H10" s="19"/>
       <c r="I10" s="34"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="13"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="13"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="42"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="37"/>
       <c r="K15" s="36"/>
       <c r="L15" s="3"/>
@@ -45574,33 +45554,33 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="14"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="9"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="112"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="13"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -45632,82 +45612,82 @@
       <c r="H18" s="19"/>
       <c r="I18" s="11"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="43"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
     </row>
-    <row r="21" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="74"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -45721,43 +45701,43 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
+    <row r="22" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
     </row>
-    <row r="23" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="25"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -45771,72 +45751,72 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\KDR001_release\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KDR001_develop\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1020,6 +1020,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,7 +1156,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,6 +1307,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1347,6 +1361,9 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1365,6 +1382,9 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1378,6 +1398,9 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,41 +1427,26 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -1461,22 +1469,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -45188,81 +45208,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11" max="21" width="5.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="84" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="3.1640625" style="2"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11" max="21" width="5.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" style="88" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="V3" s="84"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="V3" s="88"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45279,14 +45299,14 @@
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
@@ -45302,29 +45322,29 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="4"/>
@@ -45336,24 +45356,24 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
       <c r="E8" s="40"/>
@@ -45361,26 +45381,26 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="41"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -45412,130 +45432,130 @@
       <c r="H10" s="19"/>
       <c r="I10" s="34"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="73"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="13"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="13"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="42"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="43"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="37"/>
       <c r="K15" s="36"/>
       <c r="L15" s="3"/>
@@ -45554,33 +45574,33 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="14"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="9"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="13"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -45612,82 +45632,82 @@
       <c r="H18" s="19"/>
       <c r="I18" s="11"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="43"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
     </row>
-    <row r="21" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="72"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="74"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -45701,43 +45721,43 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
+    <row r="22" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
     </row>
-    <row r="23" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="73"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="25"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="74"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -45751,72 +45771,72 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:23" s="70" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="48"/>
       <c r="D24" s="49"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\KDR001_release\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\KDR001\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -645,17 +645,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -697,19 +686,6 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -721,62 +697,10 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -956,19 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -1015,6 +926,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1145,7 +1082,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,10 +1134,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,34 +1161,22 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,9 +1188,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1275,70 +1197,58 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,22 +1263,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,25 +1284,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1404,7 +1302,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,13 +1317,52 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1440,44 +1377,62 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1566,13 +1521,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>39689</xdr:colOff>
+      <xdr:colOff>31751</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>103189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
+      <xdr:colOff>277812</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -1583,8 +1538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4706939" y="555627"/>
-          <a:ext cx="277812" cy="246062"/>
+          <a:off x="4016376" y="555627"/>
+          <a:ext cx="246061" cy="246062"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -45186,10 +45141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26:W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
@@ -45201,7 +45156,7 @@
     <col min="5" max="9" width="5.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
     <col min="11" max="21" width="5.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="84" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="71" customWidth="1"/>
     <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
     <col min="24" max="16384" width="3.1640625" style="2"/>
   </cols>
@@ -45219,9 +45174,9 @@
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="95"/>
@@ -45235,8 +45190,8 @@
       <c r="I2" s="96"/>
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A3" s="97"/>
@@ -45249,20 +45204,20 @@
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="J3" s="97"/>
-      <c r="V3" s="84"/>
+      <c r="V3" s="71"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45274,19 +45229,19 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
@@ -45302,92 +45257,92 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="109"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
       <c r="A8" s="92"/>
       <c r="B8" s="93"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -45404,140 +45359,140 @@
     <row r="10" spans="1:23" ht="12" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="12"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -45554,40 +45509,40 @@
     <row r="16" spans="1:23" ht="12" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="14"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
     </row>
-    <row r="17" spans="1:23" ht="12" customHeight="1">
+    <row r="17" spans="1:32" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="13"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="36"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -45601,93 +45556,94 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" ht="12" customHeight="1">
+    <row r="18" spans="1:32" ht="12" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="15"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
     </row>
-    <row r="19" spans="1:23" ht="12" customHeight="1">
+    <row r="19" spans="1:32" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="43"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="AF19" s="110"/>
     </row>
-    <row r="20" spans="1:23" ht="12" customHeight="1">
+    <row r="20" spans="1:32" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="110"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
     </row>
-    <row r="21" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="72"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="74"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -45701,43 +45657,43 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
+    <row r="22" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="73"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="74"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -45751,55 +45707,101 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:23" s="68" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:23" ht="12" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
+    <row r="25" spans="1:32" ht="12" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+    </row>
+    <row r="26" spans="1:32" ht="12" customHeight="1">
+      <c r="C26" s="111"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="115"/>
+    </row>
+    <row r="27" spans="1:32" ht="12" customHeight="1">
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="114"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="114"/>
+      <c r="W27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -1323,6 +1323,60 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1359,6 +1413,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1375,63 +1432,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -45141,10 +45141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26:W27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
@@ -45162,48 +45162,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
       <c r="V2" s="71"/>
       <c r="W2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
       <c r="V3" s="71"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
@@ -45211,13 +45211,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45229,7 +45229,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-      <c r="W4" s="108"/>
+      <c r="W4" s="89"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
@@ -45257,41 +45257,41 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="109"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="90"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="100"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="39"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="103"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="56"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
@@ -45307,16 +45307,16 @@
       <c r="W7" s="57"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="39"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="76"/>
       <c r="L8" s="77"/>
       <c r="M8" s="77"/>
@@ -45334,8 +45334,8 @@
     <row r="9" spans="1:23" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="84"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="36"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -45384,8 +45384,8 @@
     <row r="11" spans="1:23" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="63"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -45484,8 +45484,8 @@
     <row r="15" spans="1:23" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="63"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -45531,7 +45531,7 @@
       <c r="V16" s="77"/>
       <c r="W16" s="77"/>
     </row>
-    <row r="17" spans="1:32" ht="12" customHeight="1">
+    <row r="17" spans="1:33" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="43"/>
@@ -45556,7 +45556,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:32" ht="12" customHeight="1">
+    <row r="18" spans="1:33" ht="12" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="40"/>
@@ -45580,12 +45580,15 @@
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
       <c r="W18" s="77"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
     </row>
-    <row r="19" spans="1:32" ht="12" customHeight="1">
+    <row r="19" spans="1:33" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="38"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -45605,9 +45608,11 @@
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
       <c r="W19" s="57"/>
-      <c r="AF19" s="110"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
     </row>
-    <row r="20" spans="1:32" ht="12" customHeight="1">
+    <row r="20" spans="1:33" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="45"/>
@@ -45631,12 +45636,15 @@
       <c r="U20" s="77"/>
       <c r="V20" s="77"/>
       <c r="W20" s="77"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
     </row>
-    <row r="21" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="63"/>
       <c r="F21" s="62"/>
       <c r="G21" s="16"/>
@@ -45656,8 +45664,11 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
     </row>
-    <row r="22" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="22" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="40"/>
@@ -45682,11 +45693,11 @@
       <c r="V22" s="77"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="63"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -45707,7 +45718,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:32" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="24" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="40"/>
@@ -45732,7 +45743,7 @@
       <c r="V24" s="77"/>
       <c r="W24" s="77"/>
     </row>
-    <row r="25" spans="1:32" ht="12" customHeight="1">
+    <row r="25" spans="1:33" ht="12" customHeight="1">
       <c r="A25" s="69"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
@@ -45757,8 +45768,8 @@
       <c r="V25" s="70"/>
       <c r="W25" s="70"/>
     </row>
-    <row r="26" spans="1:32" ht="12" customHeight="1">
-      <c r="C26" s="111"/>
+    <row r="26" spans="1:33" ht="12" customHeight="1">
+      <c r="C26" s="91"/>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
@@ -45778,30 +45789,30 @@
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
       <c r="V26" s="70"/>
-      <c r="W26" s="115"/>
+      <c r="W26" s="95"/>
     </row>
-    <row r="27" spans="1:32" ht="12" customHeight="1">
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="116"/>
+    <row r="27" spans="1:33" ht="12" customHeight="1">
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -100,7 +100,7 @@
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'★休暇残管理票-1'!$A$1:$W$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'★休暇残管理票-1'!$A$1:$W$32</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[7]!QuitDaicho</definedName>
@@ -405,7 +405,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +454,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -957,6 +963,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1082,7 +1110,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1377,6 +1405,30 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1433,6 +1485,24 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -45141,10 +45211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
@@ -45162,48 +45232,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="113"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
       <c r="V2" s="71"/>
       <c r="W2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
       <c r="V3" s="71"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
@@ -45211,13 +45281,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45257,17 +45327,17 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="80"/>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -45307,15 +45377,15 @@
       <c r="W7" s="57"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="85"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="39"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="88"/>
       <c r="K8" s="76"/>
       <c r="L8" s="77"/>
@@ -45331,216 +45401,216 @@
       <c r="V8" s="77"/>
       <c r="W8" s="77"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+    <row r="9" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
+    <row r="10" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
     </row>
-    <row r="11" spans="1:23" ht="12" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
+    <row r="11" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
+    <row r="12" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="98"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
     </row>
-    <row r="13" spans="1:23" ht="12" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
+    <row r="13" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A13" s="98"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
     </row>
-    <row r="14" spans="1:23" ht="12" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
+    <row r="14" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
     </row>
-    <row r="15" spans="1:23" ht="12" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+    <row r="15" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="98"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
     </row>
-    <row r="16" spans="1:23" ht="12" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
+    <row r="16" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
     </row>
     <row r="17" spans="1:33" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="10"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="33"/>
       <c r="K17" s="32"/>
       <c r="L17" s="3"/>
@@ -45557,15 +45627,15 @@
       <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="34"/>
       <c r="K18" s="76"/>
       <c r="L18" s="77"/>
@@ -45580,20 +45650,17 @@
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
       <c r="W18" s="77"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
     </row>
     <row r="19" spans="1:33" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="63"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="55"/>
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
@@ -45608,78 +45675,69 @@
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
       <c r="W19" s="57"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
     </row>
     <row r="20" spans="1:33" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
     </row>
-    <row r="21" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:33" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="54"/>
+    <row r="22" spans="1:33" ht="12" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="78"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="77"/>
       <c r="M22" s="77"/>
       <c r="N22" s="77"/>
@@ -45693,18 +45751,18 @@
       <c r="V22" s="77"/>
       <c r="W22" s="77"/>
     </row>
-    <row r="23" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+    <row r="23" spans="1:33" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="63"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="64"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -45718,18 +45776,18 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="78"/>
+    <row r="24" spans="1:33" ht="12" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
       <c r="N24" s="77"/>
@@ -45744,92 +45802,304 @@
       <c r="W24" s="77"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1">
-      <c r="C26" s="91"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="95"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1">
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="96"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="97"/>
+    </row>
+    <row r="28" spans="1:33" ht="12" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+    </row>
+    <row r="29" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="97"/>
+    </row>
+    <row r="30" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+    </row>
+    <row r="31" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" customHeight="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" customHeight="1">
+      <c r="C34" s="91"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="95"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" customHeight="1">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -886,17 +886,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -983,6 +972,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1110,7 +1112,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,7 +1278,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,10 +1293,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1305,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,7 +1317,7 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1347,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1356,7 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,10 +1365,10 @@
     <xf numFmtId="49" fontId="20" fillId="8" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,12 +1380,6 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="37" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1394,12 +1390,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,14 +1410,53 @@
     <xf numFmtId="49" fontId="20" fillId="8" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="20" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1485,24 +1514,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -45232,48 +45243,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
       <c r="T1" s="24"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
     </row>
     <row r="2" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
       <c r="V2" s="71"/>
       <c r="W2" s="72"/>
     </row>
     <row r="3" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
       <c r="V3" s="71"/>
     </row>
     <row r="4" spans="1:23" ht="12" customHeight="1">
@@ -45281,13 +45292,13 @@
       <c r="B4" s="20"/>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="124"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
@@ -45299,7 +45310,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-      <c r="W4" s="89"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" ht="12" customHeight="1" thickBot="1">
       <c r="A5" s="8"/>
@@ -45324,20 +45335,20 @@
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="W5" s="108"/>
     </row>
     <row r="6" spans="1:23" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
       <c r="L6" s="80"/>
       <c r="M6" s="80"/>
       <c r="N6" s="80"/>
@@ -45349,7 +45360,7 @@
       <c r="T6" s="80"/>
       <c r="U6" s="80"/>
       <c r="V6" s="80"/>
-      <c r="W6" s="90"/>
+      <c r="W6" s="80"/>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1">
       <c r="A7" s="4"/>
@@ -45374,18 +45385,18 @@
       <c r="T7" s="57"/>
       <c r="U7" s="57"/>
       <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
+      <c r="W7" s="109"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="105"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="39"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="103"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="88"/>
       <c r="K8" s="76"/>
       <c r="L8" s="77"/>
@@ -45399,186 +45410,186 @@
       <c r="T8" s="77"/>
       <c r="U8" s="77"/>
       <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
+      <c r="W8" s="110"/>
     </row>
-    <row r="9" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="105"/>
+    <row r="9" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="39"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="127"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="111"/>
     </row>
-    <row r="10" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="105"/>
+    <row r="10" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="39"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="112"/>
     </row>
-    <row r="11" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="105"/>
+    <row r="11" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="39"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="111"/>
     </row>
-    <row r="12" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="105"/>
+    <row r="12" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="39"/>
       <c r="E12" s="35"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="112"/>
     </row>
-    <row r="13" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="105"/>
+    <row r="13" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="39"/>
       <c r="E13" s="35"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="111"/>
     </row>
-    <row r="14" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="105"/>
+    <row r="14" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="39"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="130"/>
-      <c r="W14" s="130"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="112"/>
     </row>
-    <row r="15" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="105"/>
+    <row r="15" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="39"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="111"/>
     </row>
-    <row r="16" spans="1:23" s="99" customFormat="1" ht="12" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="100"/>
+    <row r="16" spans="1:23" s="95" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="85"/>
       <c r="D16" s="39"/>
       <c r="E16" s="35"/>
@@ -45586,26 +45597,26 @@
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
       <c r="I16" s="87"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="112"/>
     </row>
     <row r="17" spans="1:33" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="36"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -45624,7 +45635,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="W17" s="113"/>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1">
       <c r="A18" s="6"/>
@@ -45649,13 +45660,13 @@
       <c r="T18" s="77"/>
       <c r="U18" s="77"/>
       <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
+      <c r="W18" s="110"/>
     </row>
     <row r="19" spans="1:33" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="63"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -45674,7 +45685,7 @@
       <c r="T19" s="57"/>
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
+      <c r="W19" s="109"/>
     </row>
     <row r="20" spans="1:33" ht="12" customHeight="1">
       <c r="A20" s="6"/>
@@ -45699,7 +45710,7 @@
       <c r="T20" s="75"/>
       <c r="U20" s="75"/>
       <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
+      <c r="W20" s="114"/>
     </row>
     <row r="21" spans="1:33" ht="12" customHeight="1">
       <c r="A21" s="6"/>
@@ -45724,7 +45735,7 @@
       <c r="T21" s="57"/>
       <c r="U21" s="57"/>
       <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="W21" s="109"/>
     </row>
     <row r="22" spans="1:33" ht="12" customHeight="1">
       <c r="A22" s="6"/>
@@ -45749,13 +45760,13 @@
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
+      <c r="W22" s="110"/>
     </row>
     <row r="23" spans="1:33" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="63"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -45774,7 +45785,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="W23" s="113"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1">
       <c r="A24" s="5"/>
@@ -45799,7 +45810,7 @@
       <c r="T24" s="77"/>
       <c r="U24" s="77"/>
       <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
+      <c r="W24" s="110"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1">
       <c r="A25" s="6"/>
@@ -45824,7 +45835,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="W25" s="113"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1">
       <c r="A26" s="5"/>
@@ -45849,16 +45860,16 @@
       <c r="T26" s="77"/>
       <c r="U26" s="77"/>
       <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
+      <c r="W26" s="110"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="38"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -45877,10 +45888,10 @@
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
+      <c r="W27" s="109"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="93"/>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1">
       <c r="A28" s="6"/>
@@ -45905,16 +45916,16 @@
       <c r="T28" s="77"/>
       <c r="U28" s="77"/>
       <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
+      <c r="W28" s="110"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="93"/>
     </row>
     <row r="29" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="63"/>
       <c r="F29" s="62"/>
       <c r="G29" s="16"/>
@@ -45933,10 +45944,10 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
+      <c r="W29" s="113"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
     </row>
     <row r="30" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="58"/>
@@ -45961,13 +45972,13 @@
       <c r="T30" s="77"/>
       <c r="U30" s="77"/>
       <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
+      <c r="W30" s="110"/>
     </row>
     <row r="31" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="63"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
@@ -45986,7 +45997,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="W31" s="113"/>
     </row>
     <row r="32" spans="1:33" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="7"/>
@@ -46011,7 +46022,7 @@
       <c r="T32" s="77"/>
       <c r="U32" s="77"/>
       <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
+      <c r="W32" s="110"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1">
       <c r="A33" s="69"/>
@@ -46039,7 +46050,7 @@
       <c r="W33" s="70"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1">
-      <c r="C34" s="91"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
       <c r="F34" s="69"/>
@@ -46059,30 +46070,30 @@
       <c r="T34" s="70"/>
       <c r="U34" s="70"/>
       <c r="V34" s="70"/>
-      <c r="W34" s="95"/>
+      <c r="W34" s="70"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1">
-      <c r="C35" s="92"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="96"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -46107,7 +46118,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社
-&amp;C&amp;"MSゴシック,Regular"&amp;16休暇残数管理票&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
+&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理票&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理票_テンプレート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\KDR001\UniversalK\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\02.UkPersonInfo\SourceTreee\nts.uk\uk.at\at.ctx\function\nts.uk.ctx.at.function.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -392,7 +392,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -45224,22 +45224,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.1640625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11" max="21" width="5.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" style="71" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="3.1640625" style="2"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11" max="21" width="5.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" style="71" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="23" customFormat="1" ht="12" customHeight="1">
@@ -46118,7 +46118,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社
-&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理票&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
+&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
